--- a/medicine/Mort/Décès_en_1970/Décès_en_1970.xlsx
+++ b/medicine/Mort/Décès_en_1970/Décès_en_1970.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1970</t>
+          <t>Décès_en_1970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1970</t>
+          <t>Décès_en_1970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Ottavio Baussano, peintre et décorateur italien (° 19 avril 1898).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ottavio Baussano, peintre et décorateur italien (° 19 avril 1898).
 Jane Berlandina, peintre française (° 15 mars 1895).
 Émile Blondel, peintre français (° 6 août 1893).
 Esther Carp, peintre polonaise (° 1897).
@@ -540,9 +557,43 @@
 David Garfinkiel, peintre français d'origine polonaise (° 31 juillet 1902).
 Lucila Rubio de Laverde, féministe et pédagogue colombienne (° 1908).
 Inada Saburō, peintre et graveur japonais (° 1902).
-James Warner, opérateur radio américain (° 1891).
-Janvier
-1er janvier : Delia Akeley, exploratrice américaine (° 29 septembre 1875).
+James Warner, opérateur radio américain (° 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Delia Akeley, exploratrice américaine (° 29 septembre 1875).
 5 janvier :
 Roberto Gerhard, compositeur espagnol naturalisé britannique (° 25 septembre 1896).
 Ivan Vrona, critique d'art et peintre russe puis soviétique (° 17 septembre 1887).
@@ -561,9 +612,43 @@
 25 janvier : Jane Bathori (Jeanne-Marie Berthier), chanteuse d'opéra (° 14 juin 1877).
 27 janvier : Erich Heckel, peintre allemand (° 31 juillet 1883).
 29 janvier : Muhammad Tahir Pacha, homme politique égyptien, membre du Comité international olympique et fondateur des Jeux méditerranéens (° août 1879).
-30 janvier : Malcolm Keen, acteur britannique (° 8 août 1887).
-Février
-1er février : Eugène Christophe, coureur cycliste français (° 22 février 1885).
+30 janvier : Malcolm Keen, acteur britannique (° 8 août 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Eugène Christophe, coureur cycliste français (° 22 février 1885).
 2 février : Bertrand Russell, mathématicien, philosophe et moraliste, prix Nobel de littérature 1950 (° 18 mai 1872).
 5 février : José Landazabal, footballeur espagnol (° 7 janvier 1899).
 12 février : André Souris, musicien membre du groupe surréaliste belge (° 10 juillet 1899).
@@ -573,9 +658,43 @@
 19 février : Jules Dallet, peintre français (° 4 janvier 1876).
 20 février : Albert Wolff, chef d'orchestre et compositeur français (° 19 janvier 1884).
 22 février : Michele Gordini, coureur cycliste italien (° 23 avril 1896).
-25 février : Mark Rothko, peintre américain (° 25 septembre 1903).
-Mars
-5 mars : Shima Seien, peintre nihonga japonaise (° 1892).
+25 février : Mark Rothko, peintre américain (° 25 septembre 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Shima Seien, peintre nihonga japonaise (° 1892).
 12 mars : Robert de Caix de Saint-Aymour, journaliste, homme politique, écrivain et diplomate français (° 5 février 1869).
 15 mars :
 Arthur Adamov, dramaturge français d'origine russe (° 23 août 1908).
@@ -590,9 +709,43 @@
 30 mars : Leonid Ovsiannikov, peintre et pédagogue russe puis soviétique (° 25 mai 1880).
 31 mars :
 José Saló, footballeur espagnol (° 1909).
-Semion Timochenko, militaire russe puis soviétique (° 18 février 1895).
-Avril
-4 avril : Byron Foulger, acteur américain (° 27 août 1899).
+Semion Timochenko, militaire russe puis soviétique (° 18 février 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril : Byron Foulger, acteur américain (° 27 août 1899).
 11 avril :
 Rogi André, photographe portraitiste et peintre française d'origine austro-hongroise (° 10 août 1900).
 Antoine Martinez, peintre français (° 11 juillet 1913).
@@ -602,9 +755,43 @@
 25 avril : Anita Louise, actrice américaine (° 9 janvier 1915).
 26 avril : Maurice Geldhof, coureur cycliste belge (° 22 octobre 1905).
 27 avril : Arthur Shields, acteur et metteur en scène irlandais (° 15 février 1896).
-28 avril : Ed Begley, acteur américain (° 25 mars 1901).
-Mai
-6 mai :
+28 avril : Ed Begley, acteur américain (° 25 mars 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6 mai :
 Ellen Schulz Quillin, botaniste américaine (° 16 juin 1892).
 Dino Liviero, coureur cycliste italien (° 30 mai 1938).
 12 mai : Henri Hayden, peintre et lithographe français d'origine polonaise (° 24 décembre 1883).
@@ -615,9 +802,43 @@
 24 mai : John George Stewart, architecte et homme politique américain (° 2 juin 1890).
 27 mai : Prempeh II, roi des Ashantis (° vers 1892).
 28 mai : Iuliu Hossu, cardinal roumain, évêque de Gherla (° 30 janvier 1885).
-29 mai : Nicolas Abramtchik, journaliste et homme politique russe puis soviétique (° 16 août 1903).
-Juin
-2 juin : Bruce McLaren, coureur automobile néo-zélandais (° 30 août 1937).
+29 mai : Nicolas Abramtchik, journaliste et homme politique russe puis soviétique (° 16 août 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Bruce McLaren, coureur automobile néo-zélandais (° 30 août 1937).
 7 juin :
 Edward Morgan Forster, écrivain anglais (° 1er janvier 1879).
 Antoine Jacquemond, peintre et enseignant français  (° 26 janvier 1885).
@@ -634,9 +855,43 @@
 21 juin :
 Ahmed Sukarno, président de l'Indonésie (° 6 juin 1901).
 Piers Courage, pilote de Formule 1 (° 27 mai 1942).
-Léo Cassil, écrivain soviétique (° 25 juin 1905).
-Juillet
-1er juillet : Robert Barriot, peintre, émailleur et sculpteur français (° 22 juillet 1898).
+Léo Cassil, écrivain soviétique (° 25 juin 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Robert Barriot, peintre, émailleur et sculpteur français (° 22 juillet 1898).
 4 juillet :
 Barnett Newman, peintre américain (° 29 janvier 1905).
 Albert Hazen Wright, zoologiste américain (° 15 août 1879).
@@ -656,9 +911,43 @@
 Claud Allister, acteur britannique (° 3 octobre 1888).
 Fernando Arbello, tromboniste et arrangeur de jazz américain (° 30 mai 1907).
 27 juillet : António de Oliveira Salazar, dictateur portugais (° 28 avril 1889).
-31 juillet : Wilfrid Kent Hughes, athlète et homme politique britannique puis australien (° 12 juin 1895).
-Août
-2 août :
+31 juillet : Wilfrid Kent Hughes, athlète et homme politique britannique puis australien (° 12 juin 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août :
 Anatoli Tcherepovitch, coureur cycliste soviétique (° 30 juillet 1936).
 Lucien Van Beirs,  magistrat et procureur du Roi belge (° 25 août 1900).
 4 août : Edmond Audemars, coureur cycliste, aviateur et entrepreneur suisse (° 3 décembre 1882).
@@ -666,9 +955,43 @@
 18 août : Henri Bercher, peintre suisse (° 13 décembre 1877).
 24 août : Frederick Leister, acteur anglais (° 1er décembre 1885).
 28 août : Fernand Hertenberger, illustrateur, dessinateur, graveur et peintre français (° 10 avril 1882).
-30 août : Abraham Zapruder, cinéaste amateur ayant filmé l'assassinat de John F. Kennedy (° 15 mai 1905).
-Septembre
-1er septembre : François Mauriac, écrivain français, membre de l'Académie française, prix Nobel de littérature en 1952 (° 11 octobre 1885).
+30 août : Abraham Zapruder, cinéaste amateur ayant filmé l'assassinat de John F. Kennedy (° 15 mai 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : François Mauriac, écrivain français, membre de l'Académie française, prix Nobel de littérature en 1952 (° 11 octobre 1885).
 2 septembre : Kees van Baaren, compositeur et enseignant néerlandais (° 22 octobre 1906).
 5 septembre :
 Victor Kirchen, coureur cycliste luxembourgeois (° 9 juin 1898).
@@ -687,9 +1010,43 @@
 Gamal Abdel Nasser, chef de l'État égyptien (° 15 janvier 1918).
 John Dos Passos, romancier américain (° 14 janvier 1896).
 29 septembre : Noe Canjura, peintre salvadorien (° 14 août 1922).
-30 septembre : Sid Jordan, acteur américain, essentiellement actif pendant la période du cinéma muet (° 12 août 1889)
-Octobre
-1er octobre : Marcel Guimbretière, coureur cycliste français (° 4 décembre 1909).
+30 septembre : Sid Jordan, acteur américain, essentiellement actif pendant la période du cinéma muet (° 12 août 1889)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Marcel Guimbretière, coureur cycliste français (° 4 décembre 1909).
 4 octobre : Janis Joplin, chanteuse américaine (° 19 janvier 1943).
 9 octobre :
 Jean Giono, écrivain, scénariste et réalisateur français (° 30 mars 1895).
@@ -703,9 +1060,43 @@
 20 octobre :
 Joseph Doerflinger, pilote d'avion français (° 24 mai 1898).
 Patrick Wymark, acteur britannique (° 11 juillet 1926).
-21 octobre : John Thomas Scopes, professeur américain (° 3 août 1900).
-Novembre
-1er novembre : Georg Ludwig Jochum, chef d'orchestre allemand (° 10 décembre 1909).
+21 octobre : John Thomas Scopes, professeur américain (° 3 août 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Georg Ludwig Jochum, chef d'orchestre allemand (° 10 décembre 1909).
 9 novembre :
 Charles de Gaulle, général, président de la République française (° 22 novembre 1890).
 Charles Martin-Sauvaigo, peintre français (° 7 février 1881)
@@ -716,9 +1107,43 @@
 17 novembre : Alla Horska, peintre soviétique (° 18 septembre 1929).
 21 novembre : Chandrashekhara Venkata Râman, physicien indien, prix Nobel de physique en 1930 (° 7 novembre 1888).
 22 novembre : Elizabeth Zetzel, psychanalyste américaine (° 17 mars 1907).
-25 novembre : Yukio Mishima, écrivain japonais (° 14 janvier 1925).
-Décembre
-1er décembre : Hermine David, peintre et graveuse française (° 19 avril 1886).
+25 novembre : Yukio Mishima, écrivain japonais (° 14 janvier 1925).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Hermine David, peintre et graveuse française (° 19 avril 1886).
 2 décembre : André Barbier, peintre français (° 23 janvier 1883).
 3 décembre : Georges Filiberti, peintre français d'origine italienne (° 12 mars 1881).
 6 décembre :
@@ -746,9 +1171,43 @@
 Alexandre Garbell, peintre français de l’École de Paris (° mai 1903).
 Raymond Mondon, homme politique français (° 8 mars 1914).
 Cyril Scott, compositeur, poète, écrivain et philosophe anglais (° 27 septembre 1879).
-? décembre : Jean Boullet, peintre, dessinateur, illustrateur, critique de cinéma et écrivain français (° 1921).
-Date inconnue
-Edy Legrand, illustrateur et peintre français (° 24 juillet 1892).</t>
+? décembre : Jean Boullet, peintre, dessinateur, illustrateur, critique de cinéma et écrivain français (° 1921).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1970</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1970</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Edy Legrand, illustrateur et peintre français (° 24 juillet 1892).</t>
         </is>
       </c>
     </row>
